--- a/sprint/tracking_sheet.xlsx
+++ b/sprint/tracking_sheet.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksumanth\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09C1F2E3-256B-44A3-B214-AC4ECFB051B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>DATE</t>
   </si>
@@ -109,13 +103,16 @@
   </si>
   <si>
     <t>over due</t>
+  </si>
+  <si>
+    <t>1) find the best service providers suitable to our project like aws etc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,7 +234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -272,7 +269,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -449,33 +446,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -511,11 +508,14 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -526,7 +526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -537,7 +537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="30">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -548,7 +548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -559,7 +559,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -570,7 +570,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -581,7 +581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -592,22 +592,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="D14" s="4"/>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:6">
       <c r="E22" s="3"/>
       <c r="F22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:6">
       <c r="E23" s="2"/>
       <c r="F23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:6">
       <c r="E24" s="5"/>
       <c r="F24" t="s">
         <v>27</v>

--- a/sprint/tracking_sheet.xlsx
+++ b/sprint/tracking_sheet.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksumanth\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52A3DE4-3DB5-4D00-AF39-7C7EB16168DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -111,8 +117,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,33 +452,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45">
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -508,14 +514,14 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -526,7 +532,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -537,7 +543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30">
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -548,7 +554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -559,7 +565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -570,7 +576,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -581,7 +587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -592,22 +598,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D14" s="4"/>
     </row>
-    <row r="22" spans="5:6">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E22" s="3"/>
       <c r="F22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="5:6">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E23" s="2"/>
       <c r="F23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="5:6">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E24" s="5"/>
       <c r="F24" t="s">
         <v>27</v>

--- a/sprint/tracking_sheet.xlsx
+++ b/sprint/tracking_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksumanth\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4E804F-0D52-4448-B125-3C2C591745D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A5AF64-E615-4BD8-85E8-CA024AFFC305}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>DATE</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>sept 20 to oct 11</t>
+  </si>
+  <si>
+    <t>mapping part and looking for generating income like adds and sponcers</t>
   </si>
 </sst>
 </file>
@@ -485,7 +488,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,12 +569,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>12</v>

--- a/sprint/tracking_sheet.xlsx
+++ b/sprint/tracking_sheet.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksumanth\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1A9405-A179-46A4-9D59-207D036A6D87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3204" yWindow="3204" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="3210" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -141,8 +135,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +147,12 @@
     <font>
       <sz val="11"/>
       <color theme="3" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -208,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -219,6 +219,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,33 +492,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" customWidth="1"/>
-    <col min="6" max="6" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.44140625" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -566,7 +567,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -586,7 +587,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -600,18 +601,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="75">
       <c r="A5" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C5" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -622,7 +623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="30">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -633,7 +634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -644,7 +645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -655,7 +656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -666,7 +667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -677,28 +678,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="D16" s="3"/>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:6">
       <c r="E24" s="2"/>
       <c r="F24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:6">
       <c r="E25" s="6"/>
       <c r="F25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:6">
       <c r="E26" s="4"/>
       <c r="F26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:6">
       <c r="E27" s="5"/>
       <c r="F27" t="s">
         <v>29</v>

--- a/sprint/tracking_sheet.xlsx
+++ b/sprint/tracking_sheet.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksumanth\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129DE92F-224A-46C9-8456-2C320198F125}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="3210" windowWidth="17280" windowHeight="8970"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>DATE</t>
   </si>
@@ -60,12 +66,6 @@
     <t>yet to start</t>
   </si>
   <si>
-    <t>oct 11 to oct 25</t>
-  </si>
-  <si>
-    <t>chaT BOT</t>
-  </si>
-  <si>
     <t xml:space="preserve">oct 25 to nov 8 </t>
   </si>
   <si>
@@ -130,13 +130,25 @@
   </si>
   <si>
     <t>sept 30 to oct 11</t>
+  </si>
+  <si>
+    <t>oct 25 to nov 1</t>
+  </si>
+  <si>
+    <t>nov 2 to nov 8</t>
+  </si>
+  <si>
+    <t>chaT BOT with phone number hide</t>
+  </si>
+  <si>
+    <t>chaT BOT basic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,14 +163,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,6 +201,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -208,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -219,7 +231,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,33 +510,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.44140625" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45">
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -552,157 +570,166 @@
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
       <c r="H3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="75">
-      <c r="A5" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
+      <c r="B7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="D16" s="3"/>
-    </row>
-    <row r="24" spans="5:6">
-      <c r="E24" s="2"/>
-      <c r="F24" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E25" s="2"/>
+      <c r="F25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="5:6">
-      <c r="E25" s="6"/>
-      <c r="F25" t="s">
+    <row r="26" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E26" s="6"/>
+      <c r="F26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="5:6">
-      <c r="E26" s="4"/>
-      <c r="F26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="5:6">
-      <c r="E27" s="5"/>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E27" s="4"/>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E28" s="5"/>
+      <c r="F28" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/sprint/tracking_sheet.xlsx
+++ b/sprint/tracking_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksumanth\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129DE92F-224A-46C9-8456-2C320198F125}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D9D9A2-B844-4D66-B116-DB128AE5654E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>DATE</t>
   </si>
@@ -521,7 +521,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,8 +637,8 @@
       <c r="B6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
+      <c r="C6" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -648,7 +648,9 @@
       <c r="B7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
